--- a/modelo6/origen/ficheros/salida/FICHA_RESUMEN_PLACO23_217431.xlsx
+++ b/modelo6/origen/ficheros/salida/FICHA_RESUMEN_PLACO23_217431.xlsx
@@ -1979,7 +1979,9 @@
       <c r="D20" s="145" t="n"/>
       <c r="E20" s="145" t="n"/>
       <c r="F20" s="146" t="n"/>
-      <c r="G20" s="42" t="n"/>
+      <c r="G20" s="42" t="b">
+        <v>1</v>
+      </c>
       <c r="H20" s="40" t="inlineStr">
         <is>
           <t>PROYECTO DE OBRA:</t>
@@ -2027,7 +2029,7 @@
       <c r="G21" s="43" t="n"/>
       <c r="H21" s="41" t="inlineStr">
         <is>
-          <t>FECHA: DD/MM/AAAA</t>
+          <t>FECHA: 2018-08-31</t>
         </is>
       </c>
       <c r="I21" s="41" t="n"/>

--- a/modelo6/origen/ficheros/salida/FICHA_RESUMEN_PLACO23_217431.xlsx
+++ b/modelo6/origen/ficheros/salida/FICHA_RESUMEN_PLACO23_217431.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="360" yWindow="345" windowWidth="19185" windowHeight="10200" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="FICHA RESUMEN PLACO" sheetId="1" state="visible" r:id="rId1"/>
@@ -1547,14 +1547,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:AN78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:AA11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1979,9 +1979,7 @@
       <c r="D20" s="145" t="n"/>
       <c r="E20" s="145" t="n"/>
       <c r="F20" s="146" t="n"/>
-      <c r="G20" s="42" t="b">
-        <v>1</v>
-      </c>
+      <c r="G20" s="42" t="n"/>
       <c r="H20" s="40" t="inlineStr">
         <is>
           <t>PROYECTO DE OBRA:</t>
@@ -2029,7 +2027,7 @@
       <c r="G21" s="43" t="n"/>
       <c r="H21" s="41" t="inlineStr">
         <is>
-          <t>FECHA: 2018-08-31</t>
+          <t>FECHA: DD/MM/AAAA</t>
         </is>
       </c>
       <c r="I21" s="41" t="n"/>
